--- a/biology/Botanique/Pittosporum_pancheri/Pittosporum_pancheri.xlsx
+++ b/biology/Botanique/Pittosporum_pancheri/Pittosporum_pancheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittosporum pancheri est une espèce de plantes à fleurs de la famille des Pittosporaceae. Elle est endémique de Nouvelle-Calédonie. Cette espèce est commune dans les forêts tropicales sèches de la Grande Terre et de l'île des Pins.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est un petit arbre, en forme de boule. Sa sève a une odeur particulière. Sa taille est à peu près celle d’un gaïac. Il dépasse rarement 5 à 6 m de hauteur. Les feuilles sont assez étroites et mesurent 10 à 15 cm de long. D’une couleur vert foncé, elles sont fines et groupées sur les branches à intervalles réguliers. De couleur jaune clair, les fleurs sont groupées à la base des feuilles. Elles ont une forme de tube.
 </t>
@@ -542,7 +556,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont de couleur marron et sont assez petits (1,5 cm de long sur 1 cm de large). Quand ils sont mûrs, ils s’ouvrent en deux et laissent s’échapper des graines collantes, voire gluantes (le mot « pitto » signifie « colle » et le mot « sporum », graines).
 </t>
